--- a/attachment/附件1.xlsx
+++ b/attachment/附件1.xlsx
@@ -503,18 +503,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">平旱地
+    <t xml:space="preserve">平旱地
 梯田
 山坡地
 </t>
-    </r>
   </si>
   <si>
     <r>
@@ -1155,7 +1147,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1192,6 +1184,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1359,25 +1357,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1555,12 +1541,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1746,161 +1726,161 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1925,6 +1905,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1937,13 +1920,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2319,8 +2302,8 @@
   </sheetPr>
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -2333,16 +2316,16 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2356,7 +2339,7 @@
       <c r="C2" s="5">
         <v>80</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2370,7 +2353,7 @@
       <c r="C3" s="5">
         <v>55</v>
       </c>
-      <c r="D3" s="19"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" ht="18" spans="1:4">
       <c r="A4" s="5" t="s">
@@ -2382,7 +2365,7 @@
       <c r="C4" s="5">
         <v>35</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" ht="18" spans="1:4">
       <c r="A5" s="5" t="s">
@@ -2394,7 +2377,7 @@
       <c r="C5" s="5">
         <v>72</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" ht="18" spans="1:4">
       <c r="A6" s="5" t="s">
@@ -2403,10 +2386,10 @@
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <v>68</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" ht="18" spans="1:4">
       <c r="A7" s="5" t="s">
@@ -2418,7 +2401,7 @@
       <c r="C7" s="5">
         <v>55</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" ht="18" spans="1:4">
       <c r="A8" s="5" t="s">
@@ -2430,7 +2413,7 @@
       <c r="C8" s="5">
         <v>60</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="20"/>
     </row>
     <row r="9" ht="18" spans="1:4">
       <c r="A9" s="5" t="s">
@@ -2442,7 +2425,7 @@
       <c r="C9" s="5">
         <v>46</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="20"/>
     </row>
     <row r="10" ht="18" spans="1:4">
       <c r="A10" s="5" t="s">
@@ -2454,10 +2437,10 @@
       <c r="C10" s="5">
         <v>40</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" ht="18" spans="1:4">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -2466,7 +2449,7 @@
       <c r="C11" s="5">
         <v>28</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" ht="18" spans="1:4">
       <c r="A12" s="5" t="s">
@@ -2478,7 +2461,7 @@
       <c r="C12" s="5">
         <v>25</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" ht="18" spans="1:4">
       <c r="A13" s="5" t="s">
@@ -2490,7 +2473,7 @@
       <c r="C13" s="5">
         <v>86</v>
       </c>
-      <c r="D13" s="19"/>
+      <c r="D13" s="20"/>
     </row>
     <row r="14" ht="18" spans="1:4">
       <c r="A14" s="5" t="s">
@@ -2502,7 +2485,7 @@
       <c r="C14" s="5">
         <v>55</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="20"/>
     </row>
     <row r="15" ht="18" spans="1:4">
       <c r="A15" s="5" t="s">
@@ -2514,7 +2497,7 @@
       <c r="C15" s="5">
         <v>44</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="20"/>
     </row>
     <row r="16" ht="18" spans="1:4">
       <c r="A16" s="5" t="s">
@@ -2526,7 +2509,7 @@
       <c r="C16" s="5">
         <v>50</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="20"/>
     </row>
     <row r="17" ht="18" spans="1:4">
       <c r="A17" s="5" t="s">
@@ -2538,7 +2521,7 @@
       <c r="C17" s="5">
         <v>25</v>
       </c>
-      <c r="D17" s="19"/>
+      <c r="D17" s="20"/>
     </row>
     <row r="18" ht="18" spans="1:4">
       <c r="A18" s="5" t="s">
@@ -2550,7 +2533,7 @@
       <c r="C18" s="5">
         <v>60</v>
       </c>
-      <c r="D18" s="19"/>
+      <c r="D18" s="20"/>
     </row>
     <row r="19" ht="18" spans="1:4">
       <c r="A19" s="5" t="s">
@@ -2562,7 +2545,7 @@
       <c r="C19" s="5">
         <v>45</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="20"/>
     </row>
     <row r="20" ht="18" spans="1:4">
       <c r="A20" s="5" t="s">
@@ -2574,7 +2557,7 @@
       <c r="C20" s="5">
         <v>35</v>
       </c>
-      <c r="D20" s="19"/>
+      <c r="D20" s="20"/>
     </row>
     <row r="21" ht="18" spans="1:4">
       <c r="A21" s="5" t="s">
@@ -2586,7 +2569,7 @@
       <c r="C21" s="5">
         <v>20</v>
       </c>
-      <c r="D21" s="19"/>
+      <c r="D21" s="20"/>
     </row>
     <row r="22" ht="18" spans="1:4">
       <c r="A22" s="5" t="s">
@@ -2598,7 +2581,7 @@
       <c r="C22" s="5">
         <v>15</v>
       </c>
-      <c r="D22" s="19"/>
+      <c r="D22" s="20"/>
     </row>
     <row r="23" ht="18" spans="1:4">
       <c r="A23" s="5" t="s">
@@ -2610,7 +2593,7 @@
       <c r="C23" s="5">
         <v>13</v>
       </c>
-      <c r="D23" s="19"/>
+      <c r="D23" s="20"/>
     </row>
     <row r="24" ht="18" spans="1:4">
       <c r="A24" s="5" t="s">
@@ -2622,7 +2605,7 @@
       <c r="C24" s="5">
         <v>15</v>
       </c>
-      <c r="D24" s="19"/>
+      <c r="D24" s="20"/>
     </row>
     <row r="25" ht="18" spans="1:4">
       <c r="A25" s="5" t="s">
@@ -2634,7 +2617,7 @@
       <c r="C25" s="5">
         <v>18</v>
       </c>
-      <c r="D25" s="19"/>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" ht="18" spans="1:4">
       <c r="A26" s="5" t="s">
@@ -2646,7 +2629,7 @@
       <c r="C26" s="5">
         <v>27</v>
       </c>
-      <c r="D26" s="19"/>
+      <c r="D26" s="20"/>
     </row>
     <row r="27" ht="18" spans="1:4">
       <c r="A27" s="5" t="s">
@@ -2658,7 +2641,7 @@
       <c r="C27" s="5">
         <v>20</v>
       </c>
-      <c r="D27" s="19"/>
+      <c r="D27" s="20"/>
     </row>
     <row r="28" ht="13.5" customHeight="1" spans="1:4">
       <c r="A28" s="5" t="s">
@@ -2670,7 +2653,7 @@
       <c r="C28" s="5">
         <v>15</v>
       </c>
-      <c r="D28" s="19"/>
+      <c r="D28" s="20"/>
     </row>
     <row r="29" ht="13.5" customHeight="1" spans="1:4">
       <c r="A29" s="5" t="s">
@@ -2682,7 +2665,7 @@
       <c r="C29" s="5">
         <v>10</v>
       </c>
-      <c r="D29" s="19"/>
+      <c r="D29" s="20"/>
     </row>
     <row r="30" ht="13.5" customHeight="1" spans="1:4">
       <c r="A30" s="5" t="s">
@@ -2694,7 +2677,7 @@
       <c r="C30" s="5">
         <v>14</v>
       </c>
-      <c r="D30" s="19"/>
+      <c r="D30" s="20"/>
     </row>
     <row r="31" ht="13.5" customHeight="1" spans="1:4">
       <c r="A31" s="5" t="s">
@@ -2706,7 +2689,7 @@
       <c r="C31" s="5">
         <v>6</v>
       </c>
-      <c r="D31" s="19"/>
+      <c r="D31" s="20"/>
     </row>
     <row r="32" ht="13.5" customHeight="1" spans="1:4">
       <c r="A32" s="5" t="s">
@@ -2718,7 +2701,7 @@
       <c r="C32" s="5">
         <v>10</v>
       </c>
-      <c r="D32" s="19"/>
+      <c r="D32" s="20"/>
     </row>
     <row r="33" ht="13.5" customHeight="1" spans="1:4">
       <c r="A33" s="5" t="s">
@@ -2730,7 +2713,7 @@
       <c r="C33" s="5">
         <v>12</v>
       </c>
-      <c r="D33" s="19"/>
+      <c r="D33" s="20"/>
     </row>
     <row r="34" ht="18" spans="1:4">
       <c r="A34" s="5" t="s">
@@ -2742,7 +2725,7 @@
       <c r="C34" s="5">
         <v>22</v>
       </c>
-      <c r="D34" s="19"/>
+      <c r="D34" s="20"/>
     </row>
     <row r="35" ht="18" spans="1:4">
       <c r="A35" s="5" t="s">
@@ -2754,7 +2737,7 @@
       <c r="C35" s="5">
         <v>20</v>
       </c>
-      <c r="D35" s="19"/>
+      <c r="D35" s="20"/>
     </row>
     <row r="36" ht="13.5" customHeight="1" spans="1:4">
       <c r="A36" s="5" t="s">
@@ -2766,7 +2749,7 @@
       <c r="C36" s="5">
         <v>0.6</v>
       </c>
-      <c r="D36" s="19"/>
+      <c r="D36" s="20"/>
     </row>
     <row r="37" ht="13.5" customHeight="1" spans="1:4">
       <c r="A37" s="5" t="s">
@@ -2778,7 +2761,7 @@
       <c r="C37" s="5">
         <v>0.6</v>
       </c>
-      <c r="D37" s="19"/>
+      <c r="D37" s="20"/>
     </row>
     <row r="38" ht="13.5" customHeight="1" spans="1:4">
       <c r="A38" s="5" t="s">
@@ -2790,7 +2773,7 @@
       <c r="C38" s="5">
         <v>0.6</v>
       </c>
-      <c r="D38" s="19"/>
+      <c r="D38" s="20"/>
     </row>
     <row r="39" ht="13.5" customHeight="1" spans="1:4">
       <c r="A39" s="5" t="s">
@@ -2802,7 +2785,7 @@
       <c r="C39" s="5">
         <v>0.6</v>
       </c>
-      <c r="D39" s="19"/>
+      <c r="D39" s="20"/>
     </row>
     <row r="40" ht="13.5" customHeight="1" spans="1:4">
       <c r="A40" s="5" t="s">
@@ -2814,7 +2797,7 @@
       <c r="C40" s="5">
         <v>0.6</v>
       </c>
-      <c r="D40" s="19"/>
+      <c r="D40" s="20"/>
     </row>
     <row r="41" ht="13.5" customHeight="1" spans="1:4">
       <c r="A41" s="5" t="s">
@@ -2826,7 +2809,7 @@
       <c r="C41" s="5">
         <v>0.6</v>
       </c>
-      <c r="D41" s="19"/>
+      <c r="D41" s="20"/>
     </row>
     <row r="42" ht="13.5" customHeight="1" spans="1:4">
       <c r="A42" s="5" t="s">
@@ -2838,7 +2821,7 @@
       <c r="C42" s="5">
         <v>0.6</v>
       </c>
-      <c r="D42" s="19"/>
+      <c r="D42" s="20"/>
     </row>
     <row r="43" ht="13.5" customHeight="1" spans="1:4">
       <c r="A43" s="5" t="s">
@@ -2850,7 +2833,7 @@
       <c r="C43" s="5">
         <v>0.6</v>
       </c>
-      <c r="D43" s="19"/>
+      <c r="D43" s="20"/>
     </row>
     <row r="44" ht="13.5" customHeight="1" spans="1:4">
       <c r="A44" s="5" t="s">
@@ -2862,7 +2845,7 @@
       <c r="C44" s="5">
         <v>0.6</v>
       </c>
-      <c r="D44" s="19"/>
+      <c r="D44" s="20"/>
     </row>
     <row r="45" ht="13.5" customHeight="1" spans="1:4">
       <c r="A45" s="5" t="s">
@@ -2874,7 +2857,7 @@
       <c r="C45" s="5">
         <v>0.6</v>
       </c>
-      <c r="D45" s="19"/>
+      <c r="D45" s="20"/>
     </row>
     <row r="46" ht="13.5" customHeight="1" spans="1:4">
       <c r="A46" s="5" t="s">
@@ -2886,7 +2869,7 @@
       <c r="C46" s="5">
         <v>0.6</v>
       </c>
-      <c r="D46" s="19"/>
+      <c r="D46" s="20"/>
     </row>
     <row r="47" ht="13.5" customHeight="1" spans="1:4">
       <c r="A47" s="5" t="s">
@@ -2898,7 +2881,7 @@
       <c r="C47" s="5">
         <v>0.6</v>
       </c>
-      <c r="D47" s="19"/>
+      <c r="D47" s="20"/>
     </row>
     <row r="48" ht="13.5" customHeight="1" spans="1:4">
       <c r="A48" s="5" t="s">
@@ -2910,7 +2893,7 @@
       <c r="C48" s="5">
         <v>0.6</v>
       </c>
-      <c r="D48" s="19"/>
+      <c r="D48" s="20"/>
     </row>
     <row r="49" ht="13.5" customHeight="1" spans="1:4">
       <c r="A49" s="5" t="s">
@@ -2922,7 +2905,7 @@
       <c r="C49" s="5">
         <v>0.6</v>
       </c>
-      <c r="D49" s="19"/>
+      <c r="D49" s="20"/>
     </row>
     <row r="50" ht="13.5" customHeight="1" spans="1:4">
       <c r="A50" s="5" t="s">
@@ -2934,7 +2917,7 @@
       <c r="C50" s="5">
         <v>0.6</v>
       </c>
-      <c r="D50" s="19"/>
+      <c r="D50" s="20"/>
     </row>
     <row r="51" ht="13.5" customHeight="1" spans="1:4">
       <c r="A51" s="5" t="s">
@@ -2946,7 +2929,7 @@
       <c r="C51" s="5">
         <v>0.6</v>
       </c>
-      <c r="D51" s="19"/>
+      <c r="D51" s="20"/>
     </row>
     <row r="52" ht="13.5" customHeight="1" spans="1:4">
       <c r="A52" s="5" t="s">
@@ -2958,7 +2941,7 @@
       <c r="C52" s="5">
         <v>0.6</v>
       </c>
-      <c r="D52" s="19"/>
+      <c r="D52" s="20"/>
     </row>
     <row r="53" ht="13.5" customHeight="1" spans="1:4">
       <c r="A53" s="5" t="s">
@@ -2970,7 +2953,7 @@
       <c r="C53" s="5">
         <v>0.6</v>
       </c>
-      <c r="D53" s="19"/>
+      <c r="D53" s="20"/>
     </row>
     <row r="54" ht="13.5" customHeight="1" spans="1:4">
       <c r="A54" s="5" t="s">
@@ -2982,7 +2965,7 @@
       <c r="C54" s="5">
         <v>0.6</v>
       </c>
-      <c r="D54" s="19"/>
+      <c r="D54" s="20"/>
     </row>
     <row r="55" ht="13.5" customHeight="1" spans="1:4">
       <c r="A55" s="5" t="s">
@@ -2994,7 +2977,7 @@
       <c r="C55" s="5">
         <v>0.6</v>
       </c>
-      <c r="D55" s="20"/>
+      <c r="D55" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3040,7 +3023,7 @@
       <c r="D1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="14"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" ht="18" spans="1:5">
       <c r="A2" s="5">
@@ -3055,7 +3038,7 @@
       <c r="D2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" ht="18" spans="1:5">
       <c r="A3" s="5">
@@ -3067,8 +3050,8 @@
       <c r="C3" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="16"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" ht="18" spans="1:5">
       <c r="A4" s="5">
@@ -3080,8 +3063,8 @@
       <c r="C4" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="16"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" ht="18" spans="1:5">
       <c r="A5" s="5">
@@ -3093,8 +3076,8 @@
       <c r="C5" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="16"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" ht="18" spans="1:5">
       <c r="A6" s="5">
@@ -3106,8 +3089,8 @@
       <c r="C6" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="16"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" ht="18" spans="1:5">
       <c r="A7" s="5">
@@ -3119,8 +3102,8 @@
       <c r="C7" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" ht="18" spans="1:5">
       <c r="A8" s="5">
@@ -3132,8 +3115,8 @@
       <c r="C8" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="16"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" ht="18" spans="1:5">
       <c r="A9" s="5">
@@ -3145,8 +3128,8 @@
       <c r="C9" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" ht="18" spans="1:5">
       <c r="A10" s="5">
@@ -3158,8 +3141,8 @@
       <c r="C10" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="16"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" ht="18" spans="1:5">
       <c r="A11" s="5">
@@ -3171,8 +3154,8 @@
       <c r="C11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="16"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" ht="18" spans="1:5">
       <c r="A12" s="5">
@@ -3184,8 +3167,8 @@
       <c r="C12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="16"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" ht="18" spans="1:5">
       <c r="A13" s="5">
@@ -3197,8 +3180,8 @@
       <c r="C13" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="16"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" ht="18" spans="1:5">
       <c r="A14" s="5">
@@ -3210,8 +3193,8 @@
       <c r="C14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="16"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" ht="18" spans="1:5">
       <c r="A15" s="5">
@@ -3223,8 +3206,8 @@
       <c r="C15" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="16"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" ht="18" spans="1:5">
       <c r="A16" s="5">
@@ -3236,8 +3219,8 @@
       <c r="C16" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="16"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="17"/>
     </row>
     <row r="17" ht="18" spans="1:5">
       <c r="A17" s="5">
@@ -3252,7 +3235,7 @@
       <c r="D17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="17"/>
     </row>
     <row r="18" ht="18" spans="1:5">
       <c r="A18" s="5">
@@ -3264,10 +3247,10 @@
       <c r="C18" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="16"/>
+      <c r="E18" s="17"/>
     </row>
     <row r="19" ht="18" spans="1:5">
       <c r="A19" s="5">
@@ -3280,7 +3263,7 @@
         <v>89</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="16"/>
+      <c r="E19" s="17"/>
     </row>
     <row r="20" ht="18" spans="1:5">
       <c r="A20" s="5">
@@ -3293,7 +3276,7 @@
         <v>89</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="16"/>
+      <c r="E20" s="17"/>
     </row>
     <row r="21" ht="18" spans="1:5">
       <c r="A21" s="5">
@@ -3306,7 +3289,7 @@
         <v>94</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="16"/>
+      <c r="E21" s="17"/>
     </row>
     <row r="22" ht="18" spans="1:5">
       <c r="A22" s="5">
@@ -3319,7 +3302,7 @@
         <v>94</v>
       </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="16"/>
+      <c r="E22" s="17"/>
     </row>
     <row r="23" ht="18" spans="1:5">
       <c r="A23" s="5">
@@ -3332,7 +3315,7 @@
         <v>94</v>
       </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="16"/>
+      <c r="E23" s="17"/>
     </row>
     <row r="24" ht="18" spans="1:5">
       <c r="A24" s="5">
@@ -3345,7 +3328,7 @@
         <v>94</v>
       </c>
       <c r="D24" s="5"/>
-      <c r="E24" s="16"/>
+      <c r="E24" s="17"/>
     </row>
     <row r="25" ht="18" spans="1:5">
       <c r="A25" s="5">
@@ -3358,7 +3341,7 @@
         <v>94</v>
       </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="16"/>
+      <c r="E25" s="17"/>
     </row>
     <row r="26" ht="18" spans="1:5">
       <c r="A26" s="5">
@@ -3371,7 +3354,7 @@
         <v>94</v>
       </c>
       <c r="D26" s="5"/>
-      <c r="E26" s="16"/>
+      <c r="E26" s="17"/>
     </row>
     <row r="27" ht="18" spans="1:5">
       <c r="A27" s="5">
@@ -3384,7 +3367,7 @@
         <v>94</v>
       </c>
       <c r="D27" s="5"/>
-      <c r="E27" s="16"/>
+      <c r="E27" s="17"/>
     </row>
     <row r="28" ht="18" spans="1:5">
       <c r="A28" s="5">
@@ -3397,7 +3380,7 @@
         <v>94</v>
       </c>
       <c r="D28" s="5"/>
-      <c r="E28" s="16"/>
+      <c r="E28" s="17"/>
     </row>
     <row r="29" ht="18" spans="1:5">
       <c r="A29" s="5">
@@ -3410,7 +3393,7 @@
         <v>94</v>
       </c>
       <c r="D29" s="5"/>
-      <c r="E29" s="16"/>
+      <c r="E29" s="17"/>
     </row>
     <row r="30" ht="18" spans="1:5">
       <c r="A30" s="5">
@@ -3423,7 +3406,7 @@
         <v>94</v>
       </c>
       <c r="D30" s="5"/>
-      <c r="E30" s="16"/>
+      <c r="E30" s="17"/>
     </row>
     <row r="31" ht="18" spans="1:5">
       <c r="A31" s="5">
@@ -3436,7 +3419,7 @@
         <v>94</v>
       </c>
       <c r="D31" s="5"/>
-      <c r="E31" s="16"/>
+      <c r="E31" s="17"/>
     </row>
     <row r="32" ht="18" spans="1:5">
       <c r="A32" s="5">
@@ -3449,7 +3432,7 @@
         <v>94</v>
       </c>
       <c r="D32" s="5"/>
-      <c r="E32" s="16"/>
+      <c r="E32" s="17"/>
     </row>
     <row r="33" ht="18" spans="1:5">
       <c r="A33" s="5">
@@ -3462,7 +3445,7 @@
         <v>94</v>
       </c>
       <c r="D33" s="5"/>
-      <c r="E33" s="16"/>
+      <c r="E33" s="17"/>
     </row>
     <row r="34" ht="18" spans="1:5">
       <c r="A34" s="5">
@@ -3475,7 +3458,7 @@
         <v>94</v>
       </c>
       <c r="D34" s="5"/>
-      <c r="E34" s="16"/>
+      <c r="E34" s="17"/>
     </row>
     <row r="35" ht="18" spans="1:5">
       <c r="A35" s="5">
@@ -3488,7 +3471,7 @@
         <v>94</v>
       </c>
       <c r="D35" s="5"/>
-      <c r="E35" s="16"/>
+      <c r="E35" s="17"/>
     </row>
     <row r="36" ht="13.5" customHeight="1" spans="1:5">
       <c r="A36" s="5">
@@ -3500,10 +3483,10 @@
       <c r="C36" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E36" s="16"/>
+      <c r="E36" s="17"/>
     </row>
     <row r="37" ht="18" spans="1:5">
       <c r="A37" s="5">
@@ -3515,8 +3498,8 @@
       <c r="C37" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="16"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="17"/>
     </row>
     <row r="38" ht="18" spans="1:5">
       <c r="A38" s="5">
@@ -3528,8 +3511,8 @@
       <c r="C38" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="16"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="17"/>
     </row>
     <row r="39" ht="18" spans="1:5">
       <c r="A39" s="5">
@@ -3541,10 +3524,10 @@
       <c r="C39" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E39" s="16"/>
+      <c r="E39" s="17"/>
     </row>
     <row r="40" ht="18" spans="1:5">
       <c r="A40" s="5">
@@ -3556,8 +3539,8 @@
       <c r="C40" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="16"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="17"/>
     </row>
     <row r="41" ht="18" spans="1:5">
       <c r="A41" s="5">
@@ -3569,8 +3552,8 @@
       <c r="C41" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="16"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="17"/>
     </row>
     <row r="42" ht="18" spans="1:5">
       <c r="A42" s="5">
@@ -3582,36 +3565,36 @@
       <c r="C42" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="16"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="17"/>
     </row>
     <row r="43" ht="17.6" spans="1:5">
-      <c r="A43" s="9"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="10"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="11"/>
     </row>
     <row r="44" ht="17.6" spans="1:5">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="10"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" ht="17.6" spans="1:5">
-      <c r="A45" s="9"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="10"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" ht="17.6" spans="1:5">
-      <c r="A46" s="9"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="10"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
